--- a/MidtermFiles/BOM表V1/BOM表V1.xlsx
+++ b/MidtermFiles/BOM表V1/BOM表V1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文件\機械工程實務\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文件\機械工程實務\MidtermFiles\BOM表V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C8EB7D-4005-465F-A6C6-988846D56BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0A14C9-597E-4B49-8E34-869435830926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{0663BD05-46BD-45A9-ADD8-7703E04D4CA4}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,7 +395,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -471,7 +467,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>75</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -497,7 +493,7 @@
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f>SUM(A1:A18)</f>
-        <v>1508</v>
+        <v>1733</v>
       </c>
     </row>
   </sheetData>
